--- a/Realme/DECEMBER/All Details/09.12.2021/realme Bank Statement November 2021.xlsx
+++ b/Realme/DECEMBER/All Details/09.12.2021/realme Bank Statement November 2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DEC 2021" sheetId="7" r:id="rId1"/>
@@ -96,12 +96,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="F13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Camere New DSR Room Change Mistri+Board
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -274,9 +288,6 @@
     <t>L= Rasel Telecom</t>
   </si>
   <si>
-    <t>Memo Make</t>
-  </si>
-  <si>
     <t>28.10.2021</t>
   </si>
   <si>
@@ -375,6 +386,12 @@
   <si>
     <t>9.12.2021</t>
   </si>
+  <si>
+    <t>bKash Jafor(-)</t>
+  </si>
+  <si>
+    <t>Mobile Bill Cost</t>
+  </si>
 </sst>
 </file>
 
@@ -383,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -702,8 +719,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,6 +957,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,7 +1775,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2487,6 +2516,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2526,12 +2561,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2629,6 +2658,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3178,7 +3213,7 @@
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="253" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="253"/>
       <c r="D2" s="253"/>
@@ -3230,7 +3265,7 @@
     <row r="6" spans="1:11">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="19">
         <v>220000</v>
@@ -3252,7 +3287,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="19">
         <v>66000</v>
@@ -3274,7 +3309,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="15"/>
       <c r="B8" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="19">
         <v>480000</v>
@@ -3296,7 +3331,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="15"/>
       <c r="B9" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="22">
         <v>0</v>
@@ -3318,7 +3353,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="15"/>
       <c r="B10" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="19">
         <v>1030000</v>
@@ -3340,7 +3375,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="15"/>
       <c r="B11" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="19">
         <v>133000</v>
@@ -3362,7 +3397,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="15"/>
       <c r="B12" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="19">
         <v>560000</v>
@@ -3384,7 +3419,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="15"/>
       <c r="B13" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="19">
         <v>210000</v>
@@ -3406,7 +3441,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="15"/>
       <c r="B14" s="180" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="181">
         <v>1000000</v>
@@ -3419,7 +3454,7 @@
         <v>66630</v>
       </c>
       <c r="F14" s="249" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="7"/>
@@ -3430,7 +3465,7 @@
     <row r="15" spans="1:11">
       <c r="A15" s="15"/>
       <c r="B15" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="19">
         <v>1000000</v>
@@ -3452,7 +3487,7 @@
     <row r="16" spans="1:11">
       <c r="A16" s="15"/>
       <c r="B16" s="182" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="183">
         <v>480000</v>
@@ -3474,7 +3509,7 @@
     <row r="17" spans="1:11">
       <c r="A17" s="15"/>
       <c r="B17" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="19">
         <v>560000</v>
@@ -4026,7 +4061,7 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -4039,67 +4074,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="258"/>
-      <c r="P1" s="258"/>
-      <c r="Q1" s="258"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="260"/>
     </row>
     <row r="2" spans="1:24" s="105" customFormat="1" ht="18">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="261" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="259"/>
-      <c r="M2" s="259"/>
-      <c r="N2" s="259"/>
-      <c r="O2" s="259"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="261"/>
+      <c r="M2" s="261"/>
+      <c r="N2" s="261"/>
+      <c r="O2" s="261"/>
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
     </row>
     <row r="3" spans="1:24" s="106" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="260" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="262"/>
+      <c r="A3" s="262" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
+      <c r="Q3" s="264"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4108,10 +4143,10 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="108" customFormat="1">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="265" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="265" t="s">
+      <c r="B4" s="267" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="254" t="s">
@@ -4145,15 +4180,15 @@
         <v>36</v>
       </c>
       <c r="M4" s="254" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="256" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="269" t="s">
+      <c r="O4" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="267" t="s">
+      <c r="P4" s="269" t="s">
         <v>37</v>
       </c>
       <c r="Q4" s="107" t="s">
@@ -4166,8 +4201,8 @@
       <c r="W4" s="110"/>
     </row>
     <row r="5" spans="1:24" s="108" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="264"/>
-      <c r="B5" s="266"/>
+      <c r="A5" s="266"/>
+      <c r="B5" s="268"/>
       <c r="C5" s="255"/>
       <c r="D5" s="255"/>
       <c r="E5" s="255"/>
@@ -4179,9 +4214,9 @@
       <c r="K5" s="255"/>
       <c r="L5" s="255"/>
       <c r="M5" s="255"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="270"/>
-      <c r="P5" s="268"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="257"/>
+      <c r="P5" s="270"/>
       <c r="Q5" s="112" t="s">
         <v>38</v>
       </c>
@@ -4194,7 +4229,7 @@
     </row>
     <row r="6" spans="1:24" s="9" customFormat="1">
       <c r="A6" s="116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="117"/>
       <c r="C6" s="117"/>
@@ -4232,7 +4267,7 @@
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1">
       <c r="A7" s="116" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="117">
         <v>200</v>
@@ -4270,7 +4305,7 @@
     </row>
     <row r="8" spans="1:24" s="9" customFormat="1">
       <c r="A8" s="116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="124">
         <v>500</v>
@@ -4312,7 +4347,7 @@
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1">
       <c r="A9" s="116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="124">
         <v>500</v>
@@ -4352,7 +4387,7 @@
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1">
       <c r="A10" s="116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="124"/>
       <c r="C10" s="117"/>
@@ -4388,7 +4423,7 @@
     </row>
     <row r="11" spans="1:24" s="9" customFormat="1">
       <c r="A11" s="116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="124">
         <v>500</v>
@@ -4426,7 +4461,7 @@
     </row>
     <row r="12" spans="1:24" s="9" customFormat="1">
       <c r="A12" s="116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="124"/>
       <c r="C12" s="117"/>
@@ -4462,7 +4497,7 @@
     </row>
     <row r="13" spans="1:24" s="9" customFormat="1">
       <c r="A13" s="116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="124"/>
       <c r="C13" s="117"/>
@@ -4470,7 +4505,9 @@
         <v>195</v>
       </c>
       <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
+      <c r="F13" s="125">
+        <v>340</v>
+      </c>
       <c r="G13" s="125"/>
       <c r="H13" s="125"/>
       <c r="I13" s="125">
@@ -4481,13 +4518,15 @@
       </c>
       <c r="K13" s="128"/>
       <c r="L13" s="125"/>
-      <c r="M13" s="155"/>
+      <c r="M13" s="155">
+        <v>400</v>
+      </c>
       <c r="N13" s="125"/>
       <c r="O13" s="125"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="121">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>1235</v>
       </c>
       <c r="R13" s="122"/>
       <c r="S13" s="123"/>
@@ -5101,7 +5140,7 @@
       </c>
       <c r="F37" s="143">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="G37" s="143">
         <f>SUM(G6:G36)</f>
@@ -5129,7 +5168,7 @@
       </c>
       <c r="M37" s="158">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N37" s="143">
         <f t="shared" si="1"/>
@@ -5145,7 +5184,7 @@
       </c>
       <c r="Q37" s="145">
         <f>SUM(Q6:Q36)</f>
-        <v>5315</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7147,12 +7186,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7166,6 +7199,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10078,16 +10117,16 @@
     </row>
     <row r="44" spans="1:61">
       <c r="A44" s="234" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="236">
         <v>69330</v>
       </c>
       <c r="D44" s="235" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="48"/>
       <c r="F44" s="202"/>
@@ -10148,16 +10187,16 @@
     </row>
     <row r="45" spans="1:61">
       <c r="A45" s="237" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="236">
         <v>21270</v>
       </c>
       <c r="D45" s="238" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="72"/>
@@ -10218,16 +10257,16 @@
     </row>
     <row r="46" spans="1:61">
       <c r="A46" s="234" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="236">
         <v>37340</v>
       </c>
       <c r="D46" s="235" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="164"/>
@@ -10288,16 +10327,16 @@
     </row>
     <row r="47" spans="1:61">
       <c r="A47" s="234" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="236">
         <v>6000</v>
       </c>
       <c r="D47" s="238" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="164"/>
@@ -10367,7 +10406,7 @@
         <v>219190</v>
       </c>
       <c r="D48" s="235" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="161"/>
@@ -10428,16 +10467,16 @@
     </row>
     <row r="49" spans="1:61">
       <c r="A49" s="239" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="C49" s="236">
         <v>8000</v>
       </c>
       <c r="D49" s="238" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E49" s="48"/>
       <c r="F49" s="161"/>
@@ -10498,16 +10537,16 @@
     </row>
     <row r="50" spans="1:61">
       <c r="A50" s="240" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="C50" s="236">
         <v>1800</v>
       </c>
       <c r="D50" s="235" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="48"/>
       <c r="F50" s="161"/>
@@ -15883,7 +15922,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -15926,7 +15965,7 @@
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
       <c r="A3" s="292" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="293"/>
       <c r="C3" s="293"/>
@@ -16071,8 +16110,8 @@
       <c r="D7" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="226">
-        <v>172228.5</v>
+      <c r="E7" s="187">
+        <v>71488.5</v>
       </c>
       <c r="F7" s="1"/>
       <c r="H7" s="29"/>
@@ -16131,10 +16170,10 @@
     </row>
     <row r="9" spans="1:29" ht="21.75">
       <c r="A9" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="186">
-        <v>5315</v>
+        <v>6055</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="176"/>
@@ -16209,7 +16248,7 @@
       </c>
       <c r="B11" s="227">
         <f>B6-B10-B9+B7</f>
-        <v>90148.5</v>
+        <v>89408.5</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="176" t="s">
@@ -16312,10 +16351,10 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="192" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="227">
+      <c r="A14" s="304" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="305">
         <v>2000000</v>
       </c>
       <c r="C14" s="33"/>
@@ -16347,8 +16386,12 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" ht="21.75">
-      <c r="A15" s="232"/>
-      <c r="B15" s="233"/>
+      <c r="A15" s="192" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="227">
+        <v>100000</v>
+      </c>
       <c r="C15" s="33"/>
       <c r="D15" s="177"/>
       <c r="E15" s="226"/>
@@ -16383,8 +16426,8 @@
         <v>4</v>
       </c>
       <c r="B16" s="186">
-        <f>B5+B6-B9+B13-B10+B14</f>
-        <v>9090148.5</v>
+        <f>B5+B6-B9+B14-B15</f>
+        <v>8989408.5</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="176" t="s">
@@ -16392,7 +16435,7 @@
       </c>
       <c r="E16" s="187">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>9090148.5</v>
+        <v>8989408.5</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="153">
@@ -16496,7 +16539,7 @@
       </c>
       <c r="C19" s="243"/>
       <c r="D19" s="244" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="245">
         <v>21270</v>
@@ -16527,14 +16570,14 @@
     </row>
     <row r="20" spans="1:29" ht="22.5" thickBot="1">
       <c r="A20" s="246" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="188">
         <v>37340</v>
       </c>
       <c r="C20" s="172"/>
       <c r="D20" s="230" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="189">
         <v>69330</v>
